--- a/Data_preprocess/data11.xlsx
+++ b/Data_preprocess/data11.xlsx
@@ -1,37 +1,75 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="因子分析2异常值为空" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="因子分析2异常值为空" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>有机含量</t>
+  </si>
+  <si>
+    <t>黏土矿物</t>
+  </si>
+  <si>
+    <t>FeS2</t>
+  </si>
+  <si>
+    <t>碳酸盐</t>
+  </si>
+  <si>
+    <t>SiO2</t>
+  </si>
+  <si>
+    <t>Fe2O3</t>
+  </si>
+  <si>
+    <t>Al2O3</t>
+  </si>
+  <si>
+    <t>CaO</t>
+  </si>
+  <si>
+    <t>MgO</t>
+  </si>
+  <si>
+    <t>编号</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +84,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,840 +400,814 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>编号</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>有机含量</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>黏土矿物</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>FeS2</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>碳酸盐</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>SiO2</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Fe2O3</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Al2O3</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>CaO</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>MgO</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="n">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2">
         <v>86.76000000000001</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>12.25</v>
       </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
         <v>0.4</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>46.2</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>5.26</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>34.55</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2">
         <v>3.58</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2">
         <v>1.3</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:10">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>92.52</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>7.32</v>
       </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
         <v>0.16</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>47.52</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>3.68</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>37.7</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3">
         <v>1.95</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3">
         <v>0.59</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:10">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>96.79000000000001</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>3.07</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>0.17</v>
       </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
         <v>47.86</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>7.82</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>36.77</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4">
         <v>1.38</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4">
         <v>0.63</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:10">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>85.56</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>13.03</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>0.9399999999999999</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>0.47</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>45.04</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>7.44</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
         <v>36.06</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5">
         <v>3.43</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5">
         <v>0.65</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:10">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>87.75</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>10.26</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>1.23</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>0.76</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>36.22</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>24.29</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
         <v>29.25</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6">
         <v>3.23</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J6">
         <v>1.15</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:10">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>75.69</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>24.06</v>
       </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>0.2708333333333333</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>47.4</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>3.76</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7">
         <v>40</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7">
         <v>0.97</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J7">
         <v>1.15</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:10">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>99.20999999999999</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>0.63</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>0.16</v>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
         <v>47.85</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>8.869999999999999</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8">
         <v>31.75</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I8">
         <v>2.82</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J8">
         <v>0.96</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:10">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>84.5</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>14.46</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>1.04</v>
       </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
         <v>46.94</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>14.59</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9">
         <v>37.35</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I9">
         <v>2.2</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J9">
         <v>0.89</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+    <row r="10" spans="1:10">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>94.14</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>5.86</v>
       </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
         <v>48.66</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>8.41</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10">
         <v>38.42</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I10">
         <v>0.51</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J10">
         <v>0.67</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
+    <row r="11" spans="1:10">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>90.5</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>6.72</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>2.78</v>
       </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
         <v>35.18</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>1.58</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11">
         <v>30.11</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I11">
         <v>0.51</v>
       </c>
-      <c r="J11" t="n">
+      <c r="J11">
         <v>0.59</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
+    <row r="12" spans="1:10">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>72.05</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>26.49</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>1.46</v>
       </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
         <v>49.04</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>5.19</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H12">
         <v>39.28</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I12">
         <v>0.05</v>
       </c>
-      <c r="J12" t="n">
+      <c r="J12">
         <v>0.74</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
+    <row r="13" spans="1:10">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>98.09999999999999</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>1.71</v>
       </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
         <v>54.22</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13">
         <v>5.79</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H13">
         <v>32.04</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I13">
         <v>1.33</v>
       </c>
-      <c r="J13" t="n">
+      <c r="J13">
         <v>0.63</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
+    <row r="14" spans="1:10">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>96.34999999999999</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>3.13</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>0.26</v>
       </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
         <v>44.76</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>36.54</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H14">
         <v>36.2</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I14">
         <v>0.67</v>
       </c>
-      <c r="J14" t="n">
+      <c r="J14">
         <v>0.7</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
+    <row r="15" spans="1:10">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>98.48</v>
       </c>
-      <c r="C15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" t="n">
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
         <v>1.08</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>0.44</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>28.6</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>17.67</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H15">
         <v>24.37</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I15">
         <v>3.37</v>
       </c>
-      <c r="J15" t="n">
+      <c r="J15">
         <v>1.098333333333333</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
+    <row r="16" spans="1:10">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>88.51000000000001</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>2.54</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>4.33</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>0.29</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>49.12</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16">
         <v>25.26</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H16">
         <v>18.49</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I16">
         <v>2.46</v>
       </c>
-      <c r="J16" t="n">
+      <c r="J16">
         <v>1.07</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
+    <row r="17" spans="1:10">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>79.75</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>19.63</v>
       </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
         <v>53.98</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17">
         <v>8.27</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H17">
         <v>24.66</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I17">
         <v>4.25</v>
       </c>
-      <c r="J17" t="n">
+      <c r="J17">
         <v>2.37</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
+    <row r="18" spans="1:10">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>94.54000000000001</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>0.76</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>2.05</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
         <v>0.31</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18">
         <v>35.64</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18">
         <v>34.81</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H18">
         <v>11.18</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I18">
         <v>6.5</v>
       </c>
-      <c r="J18" t="n">
+      <c r="J18">
         <v>0.78</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
+    <row r="19" spans="1:10">
+      <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>91.51000000000001</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>7.88</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>0.61</v>
       </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
         <v>46.06</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19">
         <v>8.42</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H19">
         <v>38.71</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I19">
         <v>0.82</v>
       </c>
-      <c r="J19" t="n">
+      <c r="J19">
         <v>0.74</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
+    <row r="20" spans="1:10">
+      <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>90.89</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>3.04</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>0.23</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
         <v>1.17</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20">
         <v>62.48</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20">
         <v>5.11</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H20">
         <v>25.73</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I20">
         <v>0.72</v>
       </c>
-      <c r="J20" t="n">
+      <c r="J20">
         <v>0.7</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
+    <row r="21" spans="1:10">
+      <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>69.79000000000001</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>24.13</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>5.04</v>
       </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
         <v>47.56</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21">
         <v>10.56</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H21">
         <v>37.99</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I21">
         <v>0.1</v>
       </c>
-      <c r="J21" t="n">
+      <c r="J21">
         <v>1.04</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
+    <row r="22" spans="1:10">
+      <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>78.47</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>20.6</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>0.75</v>
       </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
         <v>46.96</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22">
         <v>4.36</v>
       </c>
-      <c r="H22" t="n">
+      <c r="H22">
         <v>38.42</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I22">
         <v>1.28</v>
       </c>
-      <c r="J22" t="n">
+      <c r="J22">
         <v>1.19</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
+    <row r="23" spans="1:10">
+      <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>60.71</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>29.28</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>3.58</v>
       </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
         <v>61.84</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23">
         <v>5.19</v>
       </c>
-      <c r="H23" t="n">
+      <c r="H23">
         <v>27.53</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I23">
         <v>0.01</v>
       </c>
-      <c r="J23" t="n">
+      <c r="J23">
         <v>0.85</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
+    <row r="24" spans="1:10">
+      <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>73.03</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>24.09</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>2.88</v>
       </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
         <v>47.02</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G24">
         <v>8.720000000000001</v>
       </c>
-      <c r="H24" t="n">
+      <c r="H24">
         <v>39.42</v>
       </c>
-      <c r="I24" t="n">
+      <c r="I24">
         <v>0.1</v>
       </c>
-      <c r="J24" t="n">
+      <c r="J24">
         <v>0.78</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
+    <row r="25" spans="1:10">
+      <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>86.34999999999999</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>4.99</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>1.529583333333333</v>
       </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
         <v>33.48</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G25">
         <v>40.15</v>
       </c>
-      <c r="H25" t="n">
+      <c r="H25">
         <v>13.98</v>
       </c>
-      <c r="I25" t="n">
+      <c r="I25">
         <v>4.3</v>
       </c>
-      <c r="J25" t="n">
+      <c r="J25">
         <v>0.63</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>